--- a/WindowsFormsApp autósiskola/bin/Debug/ExcelMasolat.xlsx
+++ b/WindowsFormsApp autósiskola/bin/Debug/ExcelMasolat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23906"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csics\Downloads\test files that works with the program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AC8B2A-1620-44C3-BFF6-C506E4640CE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F52DAB-387C-4852-B29E-7262D2717B0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019.tanulók" sheetId="5" r:id="rId1"/>
@@ -18,12 +18,24 @@
     <sheet name="2021.tanulók" sheetId="4" r:id="rId3"/>
     <sheet name="2020.tanulók(1)" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
   <si>
     <t>Sorszám</t>
   </si>
@@ -124,9 +136,6 @@
     <t>U.A.</t>
   </si>
   <si>
-    <t>Budapest</t>
-  </si>
-  <si>
     <t>Rátkai Petra</t>
   </si>
   <si>
@@ -263,6 +272,54 @@
   </si>
   <si>
     <t>megjegyzések</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2043. 06. 09. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019. 10. 24. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023. 10. 04. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1934. 02. 01. </t>
+  </si>
+  <si>
+    <t>Debrecen</t>
+  </si>
+  <si>
+    <t>0,0868055555555556</t>
+  </si>
+  <si>
+    <t>0,128472222222222</t>
+  </si>
+  <si>
+    <t>Galahgonya utca 10</t>
+  </si>
+  <si>
+    <t>0,0458333333333333</t>
+  </si>
+  <si>
+    <t>0,0875</t>
+  </si>
+  <si>
+    <t>0,129166666666667</t>
+  </si>
+  <si>
+    <t>fghdfg</t>
+  </si>
+  <si>
+    <t>Érdeklődő tanuló</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdagsf gfad </t>
+  </si>
+  <si>
+    <t>_x000D_
+sfdghg_x000D_
+fdgj_x000D_
+gh</t>
   </si>
 </sst>
 </file>
@@ -774,13 +831,16 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - 1. jelölőszín" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1137,15 +1197,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0107E1-31F7-4C33-AA12-48414F206857}">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1241,6 +1301,17 @@
       </c>
       <c r="AH1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1250,13 +1321,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1264,7 +1335,7 @@
     <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1362,10 +1433,10 @@
         <v>30</v>
       </c>
       <c r="AI1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1376,79 +1447,79 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1">
-        <v>52391</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
       </c>
       <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="1">
-        <v>43762</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>40</v>
       </c>
-      <c r="R2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="1">
-        <v>45203</v>
+      <c r="T2" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="U2">
         <v>4325345</v>
       </c>
       <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="2">
-        <v>12451</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>45</v>
-      </c>
       <c r="AB2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC2" t="s">
         <v>27</v>
@@ -1468,52 +1539,52 @@
       <c r="AH2">
         <v>33</v>
       </c>
-      <c r="AI2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1">
         <v>28775</v>
       </c>
       <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
       </c>
       <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
       </c>
       <c r="O3" s="1">
         <v>32134</v>
@@ -1522,13 +1593,13 @@
         <v>36497</v>
       </c>
       <c r="Q3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" t="s">
         <v>64</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>65</v>
-      </c>
-      <c r="S3" t="s">
-        <v>66</v>
       </c>
       <c r="T3" s="1">
         <v>36642</v>
@@ -1579,12 +1650,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3">
         <v>8.5416666666666655E-2</v>
@@ -1686,12 +1757,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3">
         <v>8.6111111111111124E-2</v>
@@ -1793,18 +1864,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3">
-        <v>8.6805555555555566E-2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.12847222222222224</v>
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1818,8 +1889,8 @@
       <c r="H6">
         <v>7</v>
       </c>
-      <c r="I6">
-        <v>8</v>
+      <c r="I6" t="s">
+        <v>86</v>
       </c>
       <c r="J6">
         <v>9</v>
@@ -1900,18 +1971,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>4.5833333333333337E-2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>8.7500000000000008E-2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.12916666666666668</v>
+      <c r="B7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -2003,11 +2074,11 @@
       <c r="AH7">
         <v>33</v>
       </c>
-      <c r="AI7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2114,7 +2185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2221,7 +2292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2328,7 +2399,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2435,7 +2506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2542,7 +2613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2649,7 +2720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2756,7 +2827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2863,7 +2934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2970,7 +3041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3077,7 +3148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3184,7 +3255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3291,7 +3362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3398,12 +3469,119 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>11</v>
+      </c>
+      <c r="L22">
+        <v>12</v>
+      </c>
+      <c r="M22">
+        <v>13</v>
+      </c>
+      <c r="N22">
+        <v>14</v>
+      </c>
+      <c r="O22">
+        <v>15</v>
+      </c>
+      <c r="P22">
+        <v>16</v>
+      </c>
+      <c r="Q22">
+        <v>17</v>
+      </c>
+      <c r="R22">
+        <v>18</v>
+      </c>
+      <c r="S22">
+        <v>19</v>
+      </c>
+      <c r="T22">
+        <v>20</v>
+      </c>
+      <c r="U22">
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <v>22</v>
+      </c>
+      <c r="W22">
+        <v>23</v>
+      </c>
+      <c r="X22">
+        <v>24</v>
+      </c>
+      <c r="Y22">
+        <v>25</v>
+      </c>
+      <c r="Z22">
+        <v>26</v>
+      </c>
+      <c r="AA22">
+        <v>27</v>
+      </c>
+      <c r="AB22">
+        <v>28</v>
+      </c>
+      <c r="AC22">
+        <v>29</v>
+      </c>
+      <c r="AD22">
+        <v>30</v>
+      </c>
+      <c r="AE22">
+        <v>31</v>
+      </c>
+      <c r="AF22">
+        <v>32</v>
+      </c>
+      <c r="AG22">
+        <v>33</v>
+      </c>
+      <c r="AH22">
+        <v>34</v>
+      </c>
+      <c r="AI22">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3417,15 +3595,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEC89F5-FB12-409E-B346-C91637EE22B2}">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3433,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3521,6 +3699,150 @@
       </c>
       <c r="AH1" t="s">
         <v>30</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'2020. tanulók (1,2)'!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'2020. tanulók (1,2)'!B2</f>
+        <v>Pál Zalán</v>
+      </c>
+      <c r="C2" t="str">
+        <f>'2020. tanulók (1,2)'!C2</f>
+        <v>U.A.</v>
+      </c>
+      <c r="D2" t="str">
+        <f>'2020. tanulók (1,2)'!D2</f>
+        <v>Debrecen</v>
+      </c>
+      <c r="E2" t="str">
+        <f>'2020. tanulók (1,2)'!E2</f>
+        <v xml:space="preserve">2043. 06. 09. </v>
+      </c>
+      <c r="F2" t="str">
+        <f>'2020. tanulók (1,2)'!F2</f>
+        <v>Rátkai Petra</v>
+      </c>
+      <c r="G2" t="str">
+        <f>'2020. tanulók (1,2)'!G2</f>
+        <v>magyar</v>
+      </c>
+      <c r="H2" t="str">
+        <f>'2020. tanulók (1,2)'!H2</f>
+        <v>9456 Narnia Hentes utca 6.</v>
+      </c>
+      <c r="I2" t="str">
+        <f>'2020. tanulók (1,2)'!I2</f>
+        <v>U.A.</v>
+      </c>
+      <c r="J2" t="str">
+        <f>'2020. tanulók (1,2)'!J2</f>
+        <v>324/432768</v>
+      </c>
+      <c r="K2" t="str">
+        <f>'2020. tanulók (1,2)'!K2</f>
+        <v>zalán2020@hangya.hu</v>
+      </c>
+      <c r="L2" t="str">
+        <f>'2020. tanulók (1,2)'!L2</f>
+        <v>x</v>
+      </c>
+      <c r="M2" t="str">
+        <f>'2020. tanulók (1,2)'!M2</f>
+        <v>új</v>
+      </c>
+      <c r="N2" t="str">
+        <f>'2020. tanulók (1,2)'!N2</f>
+        <v>213432HG/2021.06.07</v>
+      </c>
+      <c r="O2" t="str">
+        <f>'2020. tanulók (1,2)'!O2</f>
+        <v xml:space="preserve">2019. 10. 24. </v>
+      </c>
+      <c r="P2" t="str">
+        <f>'2020. tanulók (1,2)'!P2</f>
+        <v>2020.45.3</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>'2020. tanulók (1,2)'!Q2</f>
+        <v>9341/19/1008/8765</v>
+      </c>
+      <c r="R2" t="str">
+        <f>'2020. tanulók (1,2)'!R2</f>
+        <v>s-2020/43/1486</v>
+      </c>
+      <c r="S2" t="str">
+        <f>'2020. tanulók (1,2)'!S2</f>
+        <v>2020.20.2</v>
+      </c>
+      <c r="T2" t="str">
+        <f>'2020. tanulók (1,2)'!T2</f>
+        <v xml:space="preserve">2023. 10. 04. </v>
+      </c>
+      <c r="U2">
+        <f>'2020. tanulók (1,2)'!U2</f>
+        <v>4325345</v>
+      </c>
+      <c r="V2" t="str">
+        <f>'2020. tanulók (1,2)'!V2</f>
+        <v>2020.54.34</v>
+      </c>
+      <c r="W2" t="str">
+        <f>'2020. tanulók (1,2)'!W2</f>
+        <v xml:space="preserve">1934. 02. 01. </v>
+      </c>
+      <c r="X2" t="str">
+        <f>'2020. tanulók (1,2)'!X2</f>
+        <v>2020.32.3</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>'2020. tanulók (1,2)'!Y2</f>
+        <v>2020.04.45</v>
+      </c>
+      <c r="Z2" t="str">
+        <f>'2020. tanulók (1,2)'!Z2</f>
+        <v>x</v>
+      </c>
+      <c r="AA2" t="str">
+        <f>'2020. tanulók (1,2)'!AA2</f>
+        <v>2020.4.6. M</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>'2020. tanulók (1,2)'!AB2</f>
+        <v>x</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>'2020. tanulók (1,2)'!AC2</f>
+        <v>végzett</v>
+      </c>
+      <c r="AD2">
+        <f>'2020. tanulók (1,2)'!AD2</f>
+        <v>29</v>
+      </c>
+      <c r="AE2">
+        <f>'2020. tanulók (1,2)'!AE2</f>
+        <v>30</v>
+      </c>
+      <c r="AF2">
+        <f>'2020. tanulók (1,2)'!AF2</f>
+        <v>31</v>
+      </c>
+      <c r="AG2">
+        <f>'2020. tanulók (1,2)'!AG2</f>
+        <v>32</v>
+      </c>
+      <c r="AH2">
+        <f>'2020. tanulók (1,2)'!AH2</f>
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3532,7 +3854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC34D197-F2C4-4113-B90E-D50843FD16CD}">
   <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
@@ -3550,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3640,7 +3962,7 @@
         <v>30</v>
       </c>
       <c r="AI1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -3648,40 +3970,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>73</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
         <v>75</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>76</v>
       </c>
       <c r="O2" s="1">
         <v>45631</v>
@@ -3690,10 +4012,10 @@
         <v>45920</v>
       </c>
       <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" t="s">
         <v>77</v>
-      </c>
-      <c r="R2" t="s">
-        <v>78</v>
       </c>
       <c r="S2" s="1">
         <v>45639</v>
@@ -3710,7 +4032,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -3718,7 +4040,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp autósiskola/bin/Debug/ExcelMasolat.xlsx
+++ b/WindowsFormsApp autósiskola/bin/Debug/ExcelMasolat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csics\Downloads\test files that works with the program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F52DAB-387C-4852-B29E-7262D2717B0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E021C4CC-8FE0-457C-ABEF-92D30F8AC871}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="1725" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019.tanulók" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="107">
   <si>
     <t>Sorszám</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>magyar</t>
-  </si>
-  <si>
-    <t>324/432768</t>
   </si>
   <si>
     <t>x</t>
@@ -320,6 +317,48 @@
 sfdghg_x000D_
 fdgj_x000D_
 gh</t>
+  </si>
+  <si>
+    <t>1978.10.12</t>
+  </si>
+  <si>
+    <t>igen</t>
+  </si>
+  <si>
+    <t>1987.12.23</t>
+  </si>
+  <si>
+    <t>1999.12.03</t>
+  </si>
+  <si>
+    <t>2000.04.26</t>
+  </si>
+  <si>
+    <t>megjegyzések fdgf</t>
+  </si>
+  <si>
+    <t>0630/432768</t>
+  </si>
+  <si>
+    <t>szemüveg</t>
+  </si>
+  <si>
+    <t>Megjegyzném hogy vlamai msdf</t>
+  </si>
+  <si>
+    <t>Gabi</t>
+  </si>
+  <si>
+    <t>dfd</t>
+  </si>
+  <si>
+    <t>dfgdfgs</t>
+  </si>
+  <si>
+    <t>sdfsadfs</t>
+  </si>
+  <si>
+    <t>kfjdhgféh</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0107E1-31F7-4C33-AA12-48414F206857}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1213,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1308,10 +1347,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH2" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1321,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AI26"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AI2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1433,7 +1472,7 @@
         <v>30</v>
       </c>
       <c r="AI1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1447,10 +1486,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1459,67 +1498,67 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
       </c>
       <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="U2">
         <v>4325345</v>
       </c>
       <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>44</v>
-      </c>
       <c r="AB2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC2" t="s">
         <v>27</v>
@@ -1540,7 +1579,7 @@
         <v>33</v>
       </c>
       <c r="AI2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,61 +1587,61 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
         <v>57</v>
-      </c>
-      <c r="E3" s="1">
-        <v>28775</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
       </c>
       <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="1">
-        <v>32134</v>
-      </c>
-      <c r="P3" s="1">
-        <v>36497</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>63</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>64</v>
       </c>
-      <c r="S3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T3" s="1">
-        <v>36642</v>
+      <c r="T3" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="U3">
         <v>202345</v>
@@ -1646,8 +1685,8 @@
       <c r="AH3">
         <v>33</v>
       </c>
-      <c r="AI3">
-        <v>34</v>
+      <c r="AI3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1655,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3">
         <v>8.5416666666666655E-2</v>
@@ -1762,7 +1801,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3">
         <v>8.6111111111111124E-2</v>
@@ -1869,13 +1908,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1890,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6">
         <v>9</v>
@@ -1976,13 +2015,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -2075,7 +2114,7 @@
         <v>33</v>
       </c>
       <c r="AI7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3582,6 +3621,41 @@
       </c>
       <c r="AI22">
         <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3611,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3701,7 +3775,7 @@
         <v>30</v>
       </c>
       <c r="AI1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -3743,7 +3817,7 @@
       </c>
       <c r="J2" t="str">
         <f>'2020. tanulók (1,2)'!J2</f>
-        <v>324/432768</v>
+        <v>0630/432768</v>
       </c>
       <c r="K2" t="str">
         <f>'2020. tanulók (1,2)'!K2</f>
@@ -3842,7 +3916,7 @@
         <v>33</v>
       </c>
       <c r="AI2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3872,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3962,7 +4036,7 @@
         <v>30</v>
       </c>
       <c r="AI1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -3970,40 +4044,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>72</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
         <v>74</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>75</v>
       </c>
       <c r="O2" s="1">
         <v>45631</v>
@@ -4012,10 +4086,10 @@
         <v>45920</v>
       </c>
       <c r="Q2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" t="s">
         <v>76</v>
-      </c>
-      <c r="R2" t="s">
-        <v>77</v>
       </c>
       <c r="S2" s="1">
         <v>45639</v>
@@ -4032,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -4040,7 +4114,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp autósiskola/bin/Debug/ExcelMasolat.xlsx
+++ b/WindowsFormsApp autósiskola/bin/Debug/ExcelMasolat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23906"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\Extra projektek\WindowsFormsApp autósiskola\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csics\Downloads\test files that works with the program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51695699-3D2A-4CB3-809D-BCBDF21161BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50AB500-9027-4A43-852D-F2235CA8A18E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1032" windowWidth="21600" windowHeight="11328" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="1725" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019.tanulók" sheetId="5" r:id="rId1"/>
@@ -18,24 +18,12 @@
     <sheet name="2021.tanulók" sheetId="4" r:id="rId3"/>
     <sheet name="2020.tanulók(1)" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="101">
   <si>
     <t>Sorszám</t>
   </si>
@@ -136,12 +124,18 @@
     <t>U.A.</t>
   </si>
   <si>
+    <t>Budapest</t>
+  </si>
+  <si>
     <t>Rátkai Petra</t>
   </si>
   <si>
     <t>magyar</t>
   </si>
   <si>
+    <t>324/432768</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
@@ -271,82 +265,71 @@
     <t>megjegyzések</t>
   </si>
   <si>
-    <t xml:space="preserve">2043. 06. 09. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019. 10. 24. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023. 10. 04. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1934. 02. 01. </t>
-  </si>
-  <si>
-    <t>Debrecen</t>
-  </si>
-  <si>
-    <t>Érdeklődő tanuló</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdagsf gfad </t>
-  </si>
-  <si>
-    <t>_x000D_
-sfdghg_x000D_
-fdgj_x000D_
-gh</t>
+    <t>kARAPI kÁLÁMNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfgsnj ds fgd_x000D_
+sdgshdgn_x000D_
+dfjhgd_x000D_
+</t>
+  </si>
+  <si>
+    <t>2024.12.05</t>
+  </si>
+  <si>
+    <t>2025.09.20</t>
+  </si>
+  <si>
+    <t>2024.12.13</t>
+  </si>
+  <si>
+    <t>2024.12.30</t>
+  </si>
+  <si>
+    <t>fghdgh</t>
+  </si>
+  <si>
+    <t>2043.06.09</t>
+  </si>
+  <si>
+    <t>2019.10.24</t>
+  </si>
+  <si>
+    <t>2023.10.04</t>
+  </si>
+  <si>
+    <t>febr.34</t>
+  </si>
+  <si>
+    <t>3dfgdf</t>
+  </si>
+  <si>
+    <t>dfsds</t>
+  </si>
+  <si>
+    <t>sdsds</t>
   </si>
   <si>
     <t>1978.10.12</t>
   </si>
   <si>
+    <t>1987.12.23</t>
+  </si>
+  <si>
+    <t>1999.12.03</t>
+  </si>
+  <si>
+    <t>2000.04.26</t>
+  </si>
+  <si>
+    <t>3fdghdfhjgkghh_x000D_
+dfghfg</t>
+  </si>
+  <si>
     <t>igen</t>
   </si>
   <si>
-    <t>1987.12.23</t>
-  </si>
-  <si>
-    <t>1999.12.03</t>
-  </si>
-  <si>
-    <t>2000.04.26</t>
-  </si>
-  <si>
-    <t>0630/432768</t>
-  </si>
-  <si>
-    <t>Megjegyzném hogy vlamai msdf</t>
-  </si>
-  <si>
-    <t>szemüveggel</t>
-  </si>
-  <si>
-    <t>szemüveges</t>
-  </si>
-  <si>
-    <t>Baross Anita</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>Miskolc</t>
-  </si>
-  <si>
-    <t>Sopron</t>
-  </si>
-  <si>
-    <t>Szabó Éva</t>
-  </si>
-  <si>
-    <t>Kovács Tünde</t>
-  </si>
-  <si>
-    <t>Nyíregyházi Anita</t>
-  </si>
-  <si>
-    <t>kontaktlencse</t>
+    <t>dsfsdf</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1335,10 +1318,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1348,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1460,7 +1443,7 @@
         <v>30</v>
       </c>
       <c r="AI1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1474,79 +1457,79 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="U2">
         <v>4325345</v>
       </c>
       <c r="V2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="X2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Y2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC2" t="s">
         <v>27</v>
@@ -1567,7 +1550,7 @@
         <v>33</v>
       </c>
       <c r="AI2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1575,61 +1558,61 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="U3">
         <v>202345</v>
@@ -1673,8 +1656,8 @@
       <c r="AH3">
         <v>33</v>
       </c>
-      <c r="AI3" t="s">
-        <v>92</v>
+      <c r="AI3" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1682,21 +1665,105 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="1">
-        <v>36163</v>
-      </c>
-      <c r="F4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>15</v>
+      </c>
+      <c r="Q4">
+        <v>16</v>
+      </c>
+      <c r="R4">
+        <v>17</v>
+      </c>
+      <c r="S4">
+        <v>18</v>
+      </c>
+      <c r="T4">
+        <v>19</v>
+      </c>
+      <c r="U4">
+        <v>20</v>
+      </c>
+      <c r="V4">
+        <v>21</v>
+      </c>
+      <c r="W4">
+        <v>22</v>
+      </c>
+      <c r="X4">
+        <v>23</v>
+      </c>
+      <c r="Y4">
+        <v>24</v>
+      </c>
+      <c r="Z4">
+        <v>25</v>
+      </c>
+      <c r="AA4">
+        <v>26</v>
+      </c>
+      <c r="AB4">
+        <v>27</v>
+      </c>
+      <c r="AC4">
+        <v>28</v>
+      </c>
+      <c r="AD4">
+        <v>29</v>
+      </c>
+      <c r="AE4">
+        <v>30</v>
+      </c>
+      <c r="AF4">
+        <v>31</v>
+      </c>
+      <c r="AG4">
+        <v>32</v>
+      </c>
+      <c r="AH4">
+        <v>33</v>
+      </c>
+      <c r="AI4">
         <v>34</v>
       </c>
     </row>
@@ -1705,21 +1772,105 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>17</v>
+      </c>
+      <c r="S5">
+        <v>18</v>
+      </c>
+      <c r="T5">
+        <v>19</v>
+      </c>
+      <c r="U5">
+        <v>20</v>
+      </c>
+      <c r="V5">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <v>22</v>
+      </c>
+      <c r="X5">
+        <v>23</v>
+      </c>
+      <c r="Y5">
+        <v>24</v>
+      </c>
+      <c r="Z5">
+        <v>25</v>
+      </c>
+      <c r="AA5">
+        <v>26</v>
+      </c>
+      <c r="AB5">
+        <v>27</v>
+      </c>
+      <c r="AC5">
+        <v>28</v>
+      </c>
+      <c r="AD5">
+        <v>29</v>
+      </c>
+      <c r="AE5">
+        <v>30</v>
+      </c>
+      <c r="AF5">
+        <v>31</v>
+      </c>
+      <c r="AG5">
         <v>32</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="1">
-        <v>40752</v>
-      </c>
-      <c r="F5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="AH5">
+        <v>33</v>
+      </c>
+      <c r="AI5">
         <v>34</v>
       </c>
     </row>
@@ -1728,93 +1879,1744 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>13</v>
+      </c>
+      <c r="O6">
+        <v>14</v>
+      </c>
+      <c r="P6">
+        <v>15</v>
+      </c>
+      <c r="Q6">
+        <v>16</v>
+      </c>
+      <c r="R6">
+        <v>17</v>
+      </c>
+      <c r="S6">
+        <v>18</v>
+      </c>
+      <c r="T6">
+        <v>19</v>
+      </c>
+      <c r="U6">
+        <v>20</v>
+      </c>
+      <c r="V6">
+        <v>21</v>
+      </c>
+      <c r="W6">
+        <v>22</v>
+      </c>
+      <c r="X6">
+        <v>23</v>
+      </c>
+      <c r="Y6">
+        <v>24</v>
+      </c>
+      <c r="Z6">
+        <v>25</v>
+      </c>
+      <c r="AA6">
+        <v>26</v>
+      </c>
+      <c r="AB6">
+        <v>27</v>
+      </c>
+      <c r="AC6">
+        <v>28</v>
+      </c>
+      <c r="AD6">
+        <v>29</v>
+      </c>
+      <c r="AE6">
+        <v>30</v>
+      </c>
+      <c r="AF6">
+        <v>31</v>
+      </c>
+      <c r="AG6">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="1">
-        <v>40431</v>
-      </c>
-      <c r="F6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="AH6">
+        <v>33</v>
+      </c>
+      <c r="AI6">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>13</v>
+      </c>
+      <c r="O7">
+        <v>14</v>
+      </c>
+      <c r="P7">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <v>16</v>
+      </c>
+      <c r="R7">
+        <v>17</v>
+      </c>
+      <c r="S7">
+        <v>18</v>
+      </c>
+      <c r="T7">
+        <v>19</v>
+      </c>
+      <c r="U7">
+        <v>20</v>
+      </c>
+      <c r="V7">
+        <v>21</v>
+      </c>
+      <c r="W7">
+        <v>22</v>
+      </c>
+      <c r="X7">
+        <v>23</v>
+      </c>
+      <c r="Y7">
+        <v>24</v>
+      </c>
+      <c r="Z7">
+        <v>25</v>
+      </c>
+      <c r="AA7">
+        <v>26</v>
+      </c>
+      <c r="AB7">
+        <v>27</v>
+      </c>
+      <c r="AC7">
+        <v>28</v>
+      </c>
+      <c r="AD7">
+        <v>29</v>
+      </c>
+      <c r="AE7">
+        <v>30</v>
+      </c>
+      <c r="AF7">
+        <v>31</v>
+      </c>
+      <c r="AG7">
+        <v>32</v>
+      </c>
+      <c r="AH7">
+        <v>33</v>
+      </c>
+      <c r="AI7">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>14</v>
+      </c>
+      <c r="P8">
+        <v>15</v>
+      </c>
+      <c r="Q8">
+        <v>16</v>
+      </c>
+      <c r="R8">
+        <v>17</v>
+      </c>
+      <c r="S8">
+        <v>18</v>
+      </c>
+      <c r="T8">
+        <v>19</v>
+      </c>
+      <c r="U8">
+        <v>20</v>
+      </c>
+      <c r="V8">
+        <v>21</v>
+      </c>
+      <c r="W8">
+        <v>22</v>
+      </c>
+      <c r="X8">
+        <v>23</v>
+      </c>
+      <c r="Y8">
+        <v>24</v>
+      </c>
+      <c r="Z8">
+        <v>25</v>
+      </c>
+      <c r="AA8">
+        <v>26</v>
+      </c>
+      <c r="AB8">
+        <v>27</v>
+      </c>
+      <c r="AC8">
+        <v>28</v>
+      </c>
+      <c r="AD8">
+        <v>29</v>
+      </c>
+      <c r="AE8">
+        <v>30</v>
+      </c>
+      <c r="AF8">
+        <v>31</v>
+      </c>
+      <c r="AG8">
+        <v>32</v>
+      </c>
+      <c r="AH8">
+        <v>33</v>
+      </c>
+      <c r="AI8">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>13</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
+      </c>
+      <c r="Q9">
+        <v>16</v>
+      </c>
+      <c r="R9">
+        <v>17</v>
+      </c>
+      <c r="S9">
+        <v>18</v>
+      </c>
+      <c r="T9">
+        <v>19</v>
+      </c>
+      <c r="U9">
+        <v>20</v>
+      </c>
+      <c r="V9">
+        <v>21</v>
+      </c>
+      <c r="W9">
+        <v>22</v>
+      </c>
+      <c r="X9">
+        <v>23</v>
+      </c>
+      <c r="Y9">
+        <v>24</v>
+      </c>
+      <c r="Z9">
+        <v>25</v>
+      </c>
+      <c r="AA9">
+        <v>26</v>
+      </c>
+      <c r="AB9">
+        <v>27</v>
+      </c>
+      <c r="AC9">
+        <v>28</v>
+      </c>
+      <c r="AD9">
+        <v>29</v>
+      </c>
+      <c r="AE9">
+        <v>30</v>
+      </c>
+      <c r="AF9">
+        <v>31</v>
+      </c>
+      <c r="AG9">
+        <v>32</v>
+      </c>
+      <c r="AH9">
+        <v>33</v>
+      </c>
+      <c r="AI9">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>13</v>
+      </c>
+      <c r="O10">
+        <v>14</v>
+      </c>
+      <c r="P10">
+        <v>15</v>
+      </c>
+      <c r="Q10">
+        <v>16</v>
+      </c>
+      <c r="R10">
+        <v>17</v>
+      </c>
+      <c r="S10">
+        <v>18</v>
+      </c>
+      <c r="T10">
+        <v>19</v>
+      </c>
+      <c r="U10">
+        <v>20</v>
+      </c>
+      <c r="V10">
+        <v>21</v>
+      </c>
+      <c r="W10">
+        <v>22</v>
+      </c>
+      <c r="X10">
+        <v>23</v>
+      </c>
+      <c r="Y10">
+        <v>24</v>
+      </c>
+      <c r="Z10">
+        <v>25</v>
+      </c>
+      <c r="AA10">
+        <v>26</v>
+      </c>
+      <c r="AB10">
+        <v>27</v>
+      </c>
+      <c r="AC10">
+        <v>28</v>
+      </c>
+      <c r="AD10">
+        <v>29</v>
+      </c>
+      <c r="AE10">
+        <v>30</v>
+      </c>
+      <c r="AF10">
+        <v>31</v>
+      </c>
+      <c r="AG10">
+        <v>32</v>
+      </c>
+      <c r="AH10">
+        <v>33</v>
+      </c>
+      <c r="AI10">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>11</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>13</v>
+      </c>
+      <c r="O11">
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <v>15</v>
+      </c>
+      <c r="Q11">
+        <v>16</v>
+      </c>
+      <c r="R11">
+        <v>17</v>
+      </c>
+      <c r="S11">
+        <v>18</v>
+      </c>
+      <c r="T11">
+        <v>19</v>
+      </c>
+      <c r="U11">
+        <v>20</v>
+      </c>
+      <c r="V11">
+        <v>21</v>
+      </c>
+      <c r="W11">
+        <v>22</v>
+      </c>
+      <c r="X11">
+        <v>23</v>
+      </c>
+      <c r="Y11">
+        <v>24</v>
+      </c>
+      <c r="Z11">
+        <v>25</v>
+      </c>
+      <c r="AA11">
+        <v>26</v>
+      </c>
+      <c r="AB11">
+        <v>27</v>
+      </c>
+      <c r="AC11">
+        <v>28</v>
+      </c>
+      <c r="AD11">
+        <v>29</v>
+      </c>
+      <c r="AE11">
+        <v>30</v>
+      </c>
+      <c r="AF11">
+        <v>31</v>
+      </c>
+      <c r="AG11">
+        <v>32</v>
+      </c>
+      <c r="AH11">
+        <v>33</v>
+      </c>
+      <c r="AI11">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>13</v>
+      </c>
+      <c r="O12">
+        <v>14</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <v>16</v>
+      </c>
+      <c r="R12">
+        <v>17</v>
+      </c>
+      <c r="S12">
+        <v>18</v>
+      </c>
+      <c r="T12">
+        <v>19</v>
+      </c>
+      <c r="U12">
+        <v>20</v>
+      </c>
+      <c r="V12">
+        <v>21</v>
+      </c>
+      <c r="W12">
+        <v>22</v>
+      </c>
+      <c r="X12">
+        <v>23</v>
+      </c>
+      <c r="Y12">
+        <v>24</v>
+      </c>
+      <c r="Z12">
+        <v>25</v>
+      </c>
+      <c r="AA12">
+        <v>26</v>
+      </c>
+      <c r="AB12">
+        <v>27</v>
+      </c>
+      <c r="AC12">
+        <v>28</v>
+      </c>
+      <c r="AD12">
+        <v>29</v>
+      </c>
+      <c r="AE12">
+        <v>30</v>
+      </c>
+      <c r="AF12">
+        <v>31</v>
+      </c>
+      <c r="AG12">
+        <v>32</v>
+      </c>
+      <c r="AH12">
+        <v>33</v>
+      </c>
+      <c r="AI12">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9.1666666666666674E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>13</v>
+      </c>
+      <c r="O13">
+        <v>14</v>
+      </c>
+      <c r="P13">
+        <v>15</v>
+      </c>
+      <c r="Q13">
+        <v>16</v>
+      </c>
+      <c r="R13">
+        <v>17</v>
+      </c>
+      <c r="S13">
+        <v>18</v>
+      </c>
+      <c r="T13">
+        <v>19</v>
+      </c>
+      <c r="U13">
+        <v>20</v>
+      </c>
+      <c r="V13">
+        <v>21</v>
+      </c>
+      <c r="W13">
+        <v>22</v>
+      </c>
+      <c r="X13">
+        <v>23</v>
+      </c>
+      <c r="Y13">
+        <v>24</v>
+      </c>
+      <c r="Z13">
+        <v>25</v>
+      </c>
+      <c r="AA13">
+        <v>26</v>
+      </c>
+      <c r="AB13">
+        <v>27</v>
+      </c>
+      <c r="AC13">
+        <v>28</v>
+      </c>
+      <c r="AD13">
+        <v>29</v>
+      </c>
+      <c r="AE13">
+        <v>30</v>
+      </c>
+      <c r="AF13">
+        <v>31</v>
+      </c>
+      <c r="AG13">
+        <v>32</v>
+      </c>
+      <c r="AH13">
+        <v>33</v>
+      </c>
+      <c r="AI13">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <v>14</v>
+      </c>
+      <c r="P14">
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
+      <c r="R14">
+        <v>17</v>
+      </c>
+      <c r="S14">
+        <v>18</v>
+      </c>
+      <c r="T14">
+        <v>19</v>
+      </c>
+      <c r="U14">
+        <v>20</v>
+      </c>
+      <c r="V14">
+        <v>21</v>
+      </c>
+      <c r="W14">
+        <v>22</v>
+      </c>
+      <c r="X14">
+        <v>23</v>
+      </c>
+      <c r="Y14">
+        <v>24</v>
+      </c>
+      <c r="Z14">
+        <v>25</v>
+      </c>
+      <c r="AA14">
+        <v>26</v>
+      </c>
+      <c r="AB14">
+        <v>27</v>
+      </c>
+      <c r="AC14">
+        <v>28</v>
+      </c>
+      <c r="AD14">
+        <v>29</v>
+      </c>
+      <c r="AE14">
+        <v>30</v>
+      </c>
+      <c r="AF14">
+        <v>31</v>
+      </c>
+      <c r="AG14">
+        <v>32</v>
+      </c>
+      <c r="AH14">
+        <v>33</v>
+      </c>
+      <c r="AI14">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>15</v>
+      </c>
+      <c r="Q15">
+        <v>16</v>
+      </c>
+      <c r="R15">
+        <v>17</v>
+      </c>
+      <c r="S15">
+        <v>18</v>
+      </c>
+      <c r="T15">
+        <v>19</v>
+      </c>
+      <c r="U15">
+        <v>20</v>
+      </c>
+      <c r="V15">
+        <v>21</v>
+      </c>
+      <c r="W15">
+        <v>22</v>
+      </c>
+      <c r="X15">
+        <v>23</v>
+      </c>
+      <c r="Y15">
+        <v>24</v>
+      </c>
+      <c r="Z15">
+        <v>25</v>
+      </c>
+      <c r="AA15">
+        <v>26</v>
+      </c>
+      <c r="AB15">
+        <v>27</v>
+      </c>
+      <c r="AC15">
+        <v>28</v>
+      </c>
+      <c r="AD15">
+        <v>29</v>
+      </c>
+      <c r="AE15">
+        <v>30</v>
+      </c>
+      <c r="AF15">
+        <v>31</v>
+      </c>
+      <c r="AG15">
+        <v>32</v>
+      </c>
+      <c r="AH15">
+        <v>33</v>
+      </c>
+      <c r="AI15">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>9.375E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>13</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <v>16</v>
+      </c>
+      <c r="R16">
+        <v>17</v>
+      </c>
+      <c r="S16">
+        <v>18</v>
+      </c>
+      <c r="T16">
+        <v>19</v>
+      </c>
+      <c r="U16">
+        <v>20</v>
+      </c>
+      <c r="V16">
+        <v>21</v>
+      </c>
+      <c r="W16">
+        <v>22</v>
+      </c>
+      <c r="X16">
+        <v>23</v>
+      </c>
+      <c r="Y16">
+        <v>24</v>
+      </c>
+      <c r="Z16">
+        <v>25</v>
+      </c>
+      <c r="AA16">
+        <v>26</v>
+      </c>
+      <c r="AB16">
+        <v>27</v>
+      </c>
+      <c r="AC16">
+        <v>28</v>
+      </c>
+      <c r="AD16">
+        <v>29</v>
+      </c>
+      <c r="AE16">
+        <v>30</v>
+      </c>
+      <c r="AF16">
+        <v>31</v>
+      </c>
+      <c r="AG16">
+        <v>32</v>
+      </c>
+      <c r="AH16">
+        <v>33</v>
+      </c>
+      <c r="AI16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+      <c r="N17">
+        <v>13</v>
+      </c>
+      <c r="O17">
+        <v>14</v>
+      </c>
+      <c r="P17">
+        <v>15</v>
+      </c>
+      <c r="Q17">
+        <v>16</v>
+      </c>
+      <c r="R17">
+        <v>17</v>
+      </c>
+      <c r="S17">
+        <v>18</v>
+      </c>
+      <c r="T17">
+        <v>19</v>
+      </c>
+      <c r="U17">
+        <v>20</v>
+      </c>
+      <c r="V17">
+        <v>21</v>
+      </c>
+      <c r="W17">
+        <v>22</v>
+      </c>
+      <c r="X17">
+        <v>23</v>
+      </c>
+      <c r="Y17">
+        <v>24</v>
+      </c>
+      <c r="Z17">
+        <v>25</v>
+      </c>
+      <c r="AA17">
+        <v>26</v>
+      </c>
+      <c r="AB17">
+        <v>27</v>
+      </c>
+      <c r="AC17">
+        <v>28</v>
+      </c>
+      <c r="AD17">
+        <v>29</v>
+      </c>
+      <c r="AE17">
+        <v>30</v>
+      </c>
+      <c r="AF17">
+        <v>31</v>
+      </c>
+      <c r="AG17">
+        <v>32</v>
+      </c>
+      <c r="AH17">
+        <v>33</v>
+      </c>
+      <c r="AI17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.13680555555555554</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18">
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>13</v>
+      </c>
+      <c r="O18">
+        <v>14</v>
+      </c>
+      <c r="P18">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>16</v>
+      </c>
+      <c r="R18">
+        <v>17</v>
+      </c>
+      <c r="S18">
+        <v>18</v>
+      </c>
+      <c r="T18">
+        <v>19</v>
+      </c>
+      <c r="U18">
+        <v>20</v>
+      </c>
+      <c r="V18">
+        <v>21</v>
+      </c>
+      <c r="W18">
+        <v>22</v>
+      </c>
+      <c r="X18">
+        <v>23</v>
+      </c>
+      <c r="Y18">
+        <v>24</v>
+      </c>
+      <c r="Z18">
+        <v>25</v>
+      </c>
+      <c r="AA18">
+        <v>26</v>
+      </c>
+      <c r="AB18">
+        <v>27</v>
+      </c>
+      <c r="AC18">
+        <v>28</v>
+      </c>
+      <c r="AD18">
+        <v>29</v>
+      </c>
+      <c r="AE18">
+        <v>30</v>
+      </c>
+      <c r="AF18">
+        <v>31</v>
+      </c>
+      <c r="AG18">
+        <v>32</v>
+      </c>
+      <c r="AH18">
+        <v>33</v>
+      </c>
+      <c r="AI18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>13</v>
+      </c>
+      <c r="O19">
+        <v>14</v>
+      </c>
+      <c r="P19">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>16</v>
+      </c>
+      <c r="R19">
+        <v>17</v>
+      </c>
+      <c r="S19">
+        <v>18</v>
+      </c>
+      <c r="T19">
+        <v>19</v>
+      </c>
+      <c r="U19">
+        <v>20</v>
+      </c>
+      <c r="V19">
+        <v>21</v>
+      </c>
+      <c r="W19">
+        <v>22</v>
+      </c>
+      <c r="X19">
+        <v>23</v>
+      </c>
+      <c r="Y19">
+        <v>24</v>
+      </c>
+      <c r="Z19">
+        <v>25</v>
+      </c>
+      <c r="AA19">
+        <v>26</v>
+      </c>
+      <c r="AB19">
+        <v>27</v>
+      </c>
+      <c r="AC19">
+        <v>28</v>
+      </c>
+      <c r="AD19">
+        <v>29</v>
+      </c>
+      <c r="AE19">
+        <v>30</v>
+      </c>
+      <c r="AF19">
+        <v>31</v>
+      </c>
+      <c r="AG19">
+        <v>32</v>
+      </c>
+      <c r="AH19">
+        <v>33</v>
+      </c>
+      <c r="AI19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.13819444444444443</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <v>12</v>
+      </c>
+      <c r="N20">
+        <v>13</v>
+      </c>
+      <c r="O20">
+        <v>14</v>
+      </c>
+      <c r="P20">
+        <v>15</v>
+      </c>
+      <c r="Q20">
+        <v>16</v>
+      </c>
+      <c r="R20">
+        <v>17</v>
+      </c>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>19</v>
+      </c>
+      <c r="U20">
+        <v>20</v>
+      </c>
+      <c r="V20">
+        <v>21</v>
+      </c>
+      <c r="W20">
+        <v>22</v>
+      </c>
+      <c r="X20">
+        <v>23</v>
+      </c>
+      <c r="Y20">
+        <v>24</v>
+      </c>
+      <c r="Z20">
+        <v>25</v>
+      </c>
+      <c r="AA20">
+        <v>26</v>
+      </c>
+      <c r="AB20">
+        <v>27</v>
+      </c>
+      <c r="AC20">
+        <v>28</v>
+      </c>
+      <c r="AD20">
+        <v>29</v>
+      </c>
+      <c r="AE20">
+        <v>30</v>
+      </c>
+      <c r="AF20">
+        <v>31</v>
+      </c>
+      <c r="AG20">
+        <v>32</v>
+      </c>
+      <c r="AH20">
+        <v>33</v>
+      </c>
+      <c r="AI20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>11</v>
+      </c>
+      <c r="L22">
+        <v>12</v>
+      </c>
+      <c r="M22">
+        <v>13</v>
+      </c>
+      <c r="N22">
+        <v>14</v>
+      </c>
+      <c r="O22">
+        <v>15</v>
+      </c>
+      <c r="P22">
+        <v>16</v>
+      </c>
+      <c r="Q22">
+        <v>17</v>
+      </c>
+      <c r="R22">
+        <v>18</v>
+      </c>
+      <c r="S22">
+        <v>19</v>
+      </c>
+      <c r="T22">
+        <v>20</v>
+      </c>
+      <c r="U22">
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <v>22</v>
+      </c>
+      <c r="W22">
+        <v>23</v>
+      </c>
+      <c r="X22">
+        <v>24</v>
+      </c>
+      <c r="Y22">
+        <v>25</v>
+      </c>
+      <c r="Z22">
+        <v>26</v>
+      </c>
+      <c r="AA22">
+        <v>27</v>
+      </c>
+      <c r="AB22">
+        <v>28</v>
+      </c>
+      <c r="AC22">
+        <v>29</v>
+      </c>
+      <c r="AD22">
+        <v>30</v>
+      </c>
+      <c r="AE22">
+        <v>31</v>
+      </c>
+      <c r="AF22">
+        <v>32</v>
+      </c>
+      <c r="AG22">
+        <v>33</v>
+      </c>
+      <c r="AH22">
+        <v>34</v>
+      </c>
+      <c r="AI22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1827,15 +3629,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEC89F5-FB12-409E-B346-C91637EE22B2}">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1931,150 +3733,6 @@
       </c>
       <c r="AH1" t="s">
         <v>30</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>'2020. tanulók (1,2)'!A2</f>
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'2020. tanulók (1,2)'!B2</f>
-        <v>Pál Zalán</v>
-      </c>
-      <c r="C2" t="str">
-        <f>'2020. tanulók (1,2)'!C2</f>
-        <v>U.A.</v>
-      </c>
-      <c r="D2" t="str">
-        <f>'2020. tanulók (1,2)'!D2</f>
-        <v>Debrecen</v>
-      </c>
-      <c r="E2" t="str">
-        <f>'2020. tanulók (1,2)'!E2</f>
-        <v xml:space="preserve">2043. 06. 09. </v>
-      </c>
-      <c r="F2" t="str">
-        <f>'2020. tanulók (1,2)'!F2</f>
-        <v>Rátkai Petra</v>
-      </c>
-      <c r="G2" t="str">
-        <f>'2020. tanulók (1,2)'!G2</f>
-        <v>magyar</v>
-      </c>
-      <c r="H2" t="str">
-        <f>'2020. tanulók (1,2)'!H2</f>
-        <v>9456 Narnia Hentes utca 6.</v>
-      </c>
-      <c r="I2" t="str">
-        <f>'2020. tanulók (1,2)'!I2</f>
-        <v>U.A.</v>
-      </c>
-      <c r="J2" t="str">
-        <f>'2020. tanulók (1,2)'!J2</f>
-        <v>0630/432768</v>
-      </c>
-      <c r="K2" t="str">
-        <f>'2020. tanulók (1,2)'!K2</f>
-        <v>zalán2020@hangya.hu</v>
-      </c>
-      <c r="L2" t="str">
-        <f>'2020. tanulók (1,2)'!L2</f>
-        <v>kontaktlencse</v>
-      </c>
-      <c r="M2" t="str">
-        <f>'2020. tanulók (1,2)'!M2</f>
-        <v>új</v>
-      </c>
-      <c r="N2" t="str">
-        <f>'2020. tanulók (1,2)'!N2</f>
-        <v>213432HG/2021.06.07</v>
-      </c>
-      <c r="O2" t="str">
-        <f>'2020. tanulók (1,2)'!O2</f>
-        <v xml:space="preserve">2019. 10. 24. </v>
-      </c>
-      <c r="P2" t="str">
-        <f>'2020. tanulók (1,2)'!P2</f>
-        <v>2020.45.3</v>
-      </c>
-      <c r="Q2" t="str">
-        <f>'2020. tanulók (1,2)'!Q2</f>
-        <v>9341/19/1008/8765</v>
-      </c>
-      <c r="R2" t="str">
-        <f>'2020. tanulók (1,2)'!R2</f>
-        <v>s-2020/43/1486</v>
-      </c>
-      <c r="S2" t="str">
-        <f>'2020. tanulók (1,2)'!S2</f>
-        <v>2020.20.2</v>
-      </c>
-      <c r="T2" t="str">
-        <f>'2020. tanulók (1,2)'!T2</f>
-        <v xml:space="preserve">2023. 10. 04. </v>
-      </c>
-      <c r="U2">
-        <f>'2020. tanulók (1,2)'!U2</f>
-        <v>4325345</v>
-      </c>
-      <c r="V2" t="str">
-        <f>'2020. tanulók (1,2)'!V2</f>
-        <v>2020.54.34</v>
-      </c>
-      <c r="W2" t="str">
-        <f>'2020. tanulók (1,2)'!W2</f>
-        <v xml:space="preserve">1934. 02. 01. </v>
-      </c>
-      <c r="X2" t="str">
-        <f>'2020. tanulók (1,2)'!X2</f>
-        <v>2020.32.3</v>
-      </c>
-      <c r="Y2" t="str">
-        <f>'2020. tanulók (1,2)'!Y2</f>
-        <v>2020.04.45</v>
-      </c>
-      <c r="Z2" t="str">
-        <f>'2020. tanulók (1,2)'!Z2</f>
-        <v>szemüveges</v>
-      </c>
-      <c r="AA2" t="str">
-        <f>'2020. tanulók (1,2)'!AA2</f>
-        <v>2020.4.6. M</v>
-      </c>
-      <c r="AB2" t="str">
-        <f>'2020. tanulók (1,2)'!AB2</f>
-        <v>x</v>
-      </c>
-      <c r="AC2" t="str">
-        <f>'2020. tanulók (1,2)'!AC2</f>
-        <v>végzett</v>
-      </c>
-      <c r="AD2">
-        <f>'2020. tanulók (1,2)'!AD2</f>
-        <v>29</v>
-      </c>
-      <c r="AE2">
-        <f>'2020. tanulók (1,2)'!AE2</f>
-        <v>30</v>
-      </c>
-      <c r="AF2">
-        <f>'2020. tanulók (1,2)'!AF2</f>
-        <v>31</v>
-      </c>
-      <c r="AG2">
-        <f>'2020. tanulók (1,2)'!AG2</f>
-        <v>32</v>
-      </c>
-      <c r="AH2">
-        <f>'2020. tanulók (1,2)'!AH2</f>
-        <v>33</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2086,17 +3744,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC34D197-F2C4-4113-B90E-D50843FD16CD}">
   <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="16" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2194,208 +3852,211 @@
         <v>30</v>
       </c>
       <c r="AI1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="1">
-        <v>45631</v>
-      </c>
-      <c r="P2" s="1">
-        <v>45920</v>
+        <v>76</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" s="1">
-        <v>45639</v>
-      </c>
-      <c r="T2" s="1">
-        <v>45656</v>
+        <v>78</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="U2" s="5">
         <v>8872354</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
